--- a/biology/Zoologie/Chien_leveur_de_gibier/Chien_leveur_de_gibier.xlsx
+++ b/biology/Zoologie/Chien_leveur_de_gibier/Chien_leveur_de_gibier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chien leveur de gibier est un chien de chasse permettant, comme son nom l'indique, de lever le gibier. Il s'agit la plupart du temps de petits gibiers à plumes, tel des perdrix ou des grives.
 Le chien fouille les fourrés à la recherche de proies. Il doit rester à portée du fusil, soit environ 30 mètres, pour qu'une fois levé, le gibier puisse être abattu par le chasseur. Le chien doit être très obéissant, car il ne doit pas pourchasser l'animal chassé.
